--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151983.072810765</v>
+        <v>1149684.419896515</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683287</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="G4" t="n">
-        <v>24.76484596498756</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H4" t="n">
         <v>28.11631013281968</v>
@@ -870,7 +870,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,56 +1062,56 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="F7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G7" t="n">
+      <c r="U7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
     </row>
     <row r="8">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H9" t="n">
         <v>28.11631013281968</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>24.76484596498758</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>28.11631013281968</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>28.11631013281968</v>
       </c>
       <c r="U10" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>255.6538892153287</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.2258638521832</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.656566978698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.32757685833836</v>
       </c>
       <c r="H12" t="n">
-        <v>45.25453770826732</v>
+        <v>45.25453770826733</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>277.346676635984</v>
       </c>
       <c r="V13" t="n">
-        <v>138.6370851712188</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>83.82207308032339</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>201.2517911145071</v>
       </c>
       <c r="E14" t="n">
-        <v>250.0087205951695</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6538892153287</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>46.94766126888754</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>116.8330813676682</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.8272831086575</v>
+        <v>221.197779704581</v>
       </c>
       <c r="H17" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T17" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>305.3332303862396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>64.95913280396043</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>156.9548995066969</v>
       </c>
       <c r="T19" t="n">
-        <v>97.83437541687171</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U19" t="n">
         <v>277.346676635984</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>122.466440373522</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,7 +2098,7 @@
         <v>398.8272831086575</v>
       </c>
       <c r="H20" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>263.2592900551446</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>156.9548995066969</v>
@@ -2295,10 +2295,10 @@
         <v>238.0916429637043</v>
       </c>
       <c r="U22" t="n">
-        <v>137.0894090891514</v>
+        <v>277.346676635984</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>155.589176497067</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2374,7 +2374,7 @@
         <v>212.2884438087945</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6538892153272</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2487,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>108.8488100487518</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.9357313989399</v>
@@ -2496,7 +2496,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.9548995066969</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>148.7987035682262</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.86271419048923</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T26" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087948</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6538892153287</v>
+        <v>255.6538892153281</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2721,13 +2721,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28885624184167</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9357313989399</v>
+        <v>40.63055517795406</v>
       </c>
       <c r="H28" t="n">
         <v>136.5021430764245</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>156.9548995066969</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.8272831086585</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H29" t="n">
         <v>279.8515591943052</v>
@@ -2857,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439297</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>46.94766126888721</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -3006,7 +3006,7 @@
         <v>238.0916429637043</v>
       </c>
       <c r="U31" t="n">
-        <v>277.346676635984</v>
+        <v>154.0415004149987</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3034,7 +3034,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>419.059694606849</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>46.94766126888732</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.7741644061694</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>125.8375815994295</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T35" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>201.8337862467245</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S37" t="n">
-        <v>16.69763195986439</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T37" t="n">
         <v>238.0916429637043</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>99.88099004181996</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>310.6495365429046</v>
+        <v>240.7868223524163</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H40" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783873</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>195.7960024800682</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3751,10 +3751,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>240.7868223524163</v>
       </c>
       <c r="G41" t="n">
-        <v>297.3793953943408</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3915,10 +3915,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H43" t="n">
-        <v>92.15988796783964</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S43" t="n">
         <v>156.9548995066969</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>131.8466122423793</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>164.9400688482883</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>206.551326555376</v>
       </c>
       <c r="G44" t="n">
         <v>398.8272831086575</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4155,7 +4155,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I46" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.69763195986529</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T46" t="n">
         <v>238.0916429637043</v>
       </c>
       <c r="U46" t="n">
-        <v>277.346676635984</v>
+        <v>233.0044215273987</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C2" t="n">
         <v>64.82049353730262</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270697</v>
       </c>
       <c r="E2" t="n">
         <v>23.63174095096858</v>
@@ -4330,28 +4330,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K2" t="n">
         <v>30.08445184211706</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="N2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="O2" t="n">
         <v>57.91959887360855</v>
       </c>
-      <c r="L2" t="n">
-        <v>57.91959887360855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>85.75474590510004</v>
-      </c>
-      <c r="N2" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="O2" t="n">
-        <v>112.4652405312787</v>
-      </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R2" t="n">
         <v>112.4652405312787</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G3" t="n">
-        <v>27.26430073485544</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
@@ -4409,28 +4409,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J3" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K3" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L3" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M3" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N3" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="O3" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="P3" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
@@ -4442,19 +4442,19 @@
         <v>84.0649272658043</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="F4" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G4" t="n">
         <v>30.6496180761</v>
@@ -4491,19 +4491,19 @@
         <v>28.95979943680427</v>
       </c>
       <c r="K4" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="M4" t="n">
         <v>56.79494646829576</v>
       </c>
-      <c r="L4" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>84.63009349978725</v>
       </c>
-      <c r="N4" t="n">
-        <v>112.4652405312787</v>
-      </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
         <v>112.4652405312787</v>
@@ -4518,22 +4518,22 @@
         <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="5">
@@ -4567,28 +4567,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K5" t="n">
-        <v>2.249304810625575</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L5" t="n">
-        <v>2.249304810625575</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="M5" t="n">
-        <v>2.249304810625575</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="N5" t="n">
-        <v>30.08445184211706</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="O5" t="n">
-        <v>56.79494646829576</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="P5" t="n">
-        <v>56.79494646829576</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4646,28 +4646,28 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>9.695947772537416</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K6" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L6" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M6" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N6" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.45024460704886</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C7" t="n">
-        <v>87.45024460704886</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D7" t="n">
-        <v>87.45024460704886</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E7" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F7" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G7" t="n">
         <v>2.249304810625575</v>
@@ -4725,52 +4725,52 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K7" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L7" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M7" t="n">
-        <v>28.95979943680427</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N7" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O7" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q7" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U7" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="V7" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="W7" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="X7" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.4652405312787</v>
+        <v>2.249304810625575</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C8" t="n">
-        <v>64.82049353730264</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D8" t="n">
-        <v>45.56827676270699</v>
+        <v>45.56827676270698</v>
       </c>
       <c r="E8" t="n">
-        <v>23.6317409509686</v>
+        <v>23.63174095096858</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5479631807729</v>
+        <v>2.547963180772885</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24930481062559</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24930481062559</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I8" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K8" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L8" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M8" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N8" t="n">
         <v>57.91959887360855</v>
       </c>
       <c r="O8" t="n">
-        <v>85.75474590510004</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P8" t="n">
-        <v>112.4652405312787</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4846,7 +4846,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X8" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y8" t="n">
         <v>103.4887797347244</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.6496180761</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="C9" t="n">
-        <v>30.6496180761</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6496180761</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="E9" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F9" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G9" t="n">
         <v>30.6496180761</v>
@@ -4880,22 +4880,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I9" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J9" t="n">
-        <v>2.249304810625575</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K9" t="n">
-        <v>2.249304810625575</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="L9" t="n">
-        <v>2.249304810625575</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M9" t="n">
-        <v>30.08445184211706</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N9" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O9" t="n">
         <v>84.63009349978725</v>
@@ -4910,25 +4910,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="T9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="U9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="V9" t="n">
         <v>87.45024460704886</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>87.45024460704886</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>87.45024460704886</v>
       </c>
-      <c r="V9" t="n">
-        <v>59.04993134157444</v>
-      </c>
-      <c r="W9" t="n">
-        <v>59.04993134157444</v>
-      </c>
-      <c r="X9" t="n">
-        <v>59.04993134157444</v>
-      </c>
       <c r="Y9" t="n">
-        <v>59.04993134157444</v>
+        <v>87.45024460704886</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C10" t="n">
         <v>2.249304810625575</v>
@@ -4962,7 +4962,7 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K10" t="n">
         <v>30.08445184211706</v>
@@ -4974,40 +4974,40 @@
         <v>57.91959887360855</v>
       </c>
       <c r="N10" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="P10" t="n">
         <v>85.75474590510004</v>
-      </c>
-      <c r="O10" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="P10" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U10" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V10" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W10" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X10" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2041.663903543567</v>
+        <v>1335.692940108057</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.763173556867</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="D11" t="n">
-        <v>1191.470552741867</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="E11" t="n">
-        <v>765.493612889725</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F11" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="G11" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="H11" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I11" t="n">
         <v>79.53261889552356</v>
       </c>
       <c r="J11" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K11" t="n">
-        <v>680.4809444584603</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.40816413382</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M11" t="n">
-        <v>1612.609055247906</v>
+        <v>1620.431017215541</v>
       </c>
       <c r="N11" t="n">
-        <v>1835.090408763786</v>
+        <v>1842.912370731422</v>
       </c>
       <c r="O11" t="n">
-        <v>2043.006262107693</v>
+        <v>2050.828224075329</v>
       </c>
       <c r="P11" t="n">
-        <v>2214.851219993864</v>
+        <v>2222.673181961499</v>
       </c>
       <c r="Q11" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470532</v>
       </c>
       <c r="R11" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S11" t="n">
         <v>2813.986024758537</v>
@@ -5077,16 +5077,16 @@
         <v>2341.317001501848</v>
       </c>
       <c r="V11" t="n">
-        <v>2341.317001501848</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W11" t="n">
-        <v>2341.317001501848</v>
+        <v>1587.436236928444</v>
       </c>
       <c r="X11" t="n">
-        <v>2341.317001501848</v>
+        <v>1335.692940108057</v>
       </c>
       <c r="Y11" t="n">
-        <v>2041.663903543567</v>
+        <v>1335.692940108057</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H12" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I12" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J12" t="n">
-        <v>413.6425571317126</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K12" t="n">
-        <v>517.0650610239309</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L12" t="n">
-        <v>988.3863440063985</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.597472685499</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N12" t="n">
-        <v>1343.760856358152</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O12" t="n">
-        <v>1505.879242558995</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P12" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q12" t="n">
         <v>1709.617917594659</v>
@@ -5196,16 +5196,16 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I13" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J13" t="n">
         <v>161.2846086864215</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5722733880318</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L13" t="n">
-        <v>915.2083926800955</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M13" t="n">
         <v>1408.610993194761</v>
@@ -5217,31 +5217,31 @@
         <v>2333.485767027292</v>
       </c>
       <c r="P13" t="n">
-        <v>2702.951323608642</v>
+        <v>2702.951323608643</v>
       </c>
       <c r="Q13" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R13" t="n">
-        <v>2867.431098359184</v>
+        <v>2867.431098359185</v>
       </c>
       <c r="S13" t="n">
-        <v>2708.890795827167</v>
+        <v>2708.890795827168</v>
       </c>
       <c r="T13" t="n">
         <v>2468.394186772921</v>
       </c>
       <c r="U13" t="n">
-        <v>2188.246028554755</v>
+        <v>2188.246028554756</v>
       </c>
       <c r="V13" t="n">
-        <v>2048.208568785847</v>
+        <v>1906.534561162785</v>
       </c>
       <c r="W13" t="n">
-        <v>1773.35616495836</v>
+        <v>1631.682157335298</v>
       </c>
       <c r="X13" t="n">
-        <v>1530.792268404165</v>
+        <v>1389.118260781103</v>
       </c>
       <c r="Y13" t="n">
         <v>1304.449500093908</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1158.641952291456</v>
+        <v>1396.531738407369</v>
       </c>
       <c r="C14" t="n">
-        <v>1158.641952291456</v>
+        <v>969.6310084206689</v>
       </c>
       <c r="D14" t="n">
-        <v>735.3493314764567</v>
+        <v>766.3463709312678</v>
       </c>
       <c r="E14" t="n">
-        <v>482.8152702692147</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="F14" t="n">
-        <v>57.69108845861494</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="G14" t="n">
-        <v>57.69108845861494</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H14" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I14" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J14" t="n">
         <v>565.5174547184467</v>
@@ -5287,43 +5287,43 @@
         <v>1470.9212711929</v>
       </c>
       <c r="M14" t="n">
-        <v>1689.122162306986</v>
+        <v>2104.457962610642</v>
       </c>
       <c r="N14" t="n">
-        <v>1911.603515822866</v>
+        <v>2326.939316126522</v>
       </c>
       <c r="O14" t="n">
-        <v>2119.519369166773</v>
+        <v>2534.855169470429</v>
       </c>
       <c r="P14" t="n">
-        <v>2291.364327052943</v>
+        <v>2706.700127356599</v>
       </c>
       <c r="Q14" t="n">
-        <v>2827.920462748282</v>
+        <v>2827.920462748283</v>
       </c>
       <c r="R14" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S14" t="n">
         <v>2813.986024758537</v>
       </c>
       <c r="T14" t="n">
-        <v>2599.553253234502</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U14" t="n">
-        <v>2341.317001501847</v>
+        <v>2555.749773025882</v>
       </c>
       <c r="V14" t="n">
-        <v>1983.827586628096</v>
+        <v>2198.260358152132</v>
       </c>
       <c r="W14" t="n">
-        <v>1983.827586628096</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.827586628096</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.490316582986</v>
+        <v>1396.531738407369</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>103.40274270939</v>
       </c>
       <c r="H15" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I15" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J15" t="n">
-        <v>121.5400646621215</v>
+        <v>198.6560165674135</v>
       </c>
       <c r="K15" t="n">
-        <v>224.9625685543398</v>
+        <v>302.0785204596318</v>
       </c>
       <c r="L15" t="n">
-        <v>371.5543011048471</v>
+        <v>448.6702530101392</v>
       </c>
       <c r="M15" t="n">
-        <v>545.7654297839476</v>
+        <v>1162.597472685499</v>
       </c>
       <c r="N15" t="n">
-        <v>756.8063109538336</v>
+        <v>1343.760856358153</v>
       </c>
       <c r="O15" t="n">
-        <v>918.9246971546758</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P15" t="n">
         <v>1632.851916830036</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.7328483303413</v>
+        <v>1114.283531381842</v>
       </c>
       <c r="C16" t="n">
         <v>942.3109682607579</v>
@@ -5433,7 +5433,7 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I16" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J16" t="n">
         <v>161.2846086864215</v>
@@ -5442,7 +5442,7 @@
         <v>463.5722733880319</v>
       </c>
       <c r="L16" t="n">
-        <v>915.2083926800954</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M16" t="n">
         <v>1408.610993194761</v>
@@ -5457,31 +5457,31 @@
         <v>2702.951323608642</v>
       </c>
       <c r="Q16" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R16" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S16" t="n">
-        <v>2726.01412039873</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T16" t="n">
-        <v>2485.517511344483</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U16" t="n">
-        <v>2205.369353126318</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V16" t="n">
-        <v>1923.657885734347</v>
+        <v>1923.657885734348</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.80548190686</v>
+        <v>1648.805481906861</v>
       </c>
       <c r="X16" t="n">
-        <v>1406.241585352665</v>
+        <v>1530.792268404165</v>
       </c>
       <c r="Y16" t="n">
-        <v>1179.898817042407</v>
+        <v>1304.449500093908</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1592.494833270164</v>
+        <v>1982.417661634755</v>
       </c>
       <c r="C17" t="n">
-        <v>1592.494833270164</v>
+        <v>1555.516931648055</v>
       </c>
       <c r="D17" t="n">
-        <v>1169.202212455164</v>
+        <v>1132.224310833055</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2252726030217</v>
+        <v>706.2473709809127</v>
       </c>
       <c r="F17" t="n">
-        <v>743.2252726030217</v>
+        <v>281.1231891703129</v>
       </c>
       <c r="G17" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="H17" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I17" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J17" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2979820334617</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L17" t="n">
-        <v>1037.225201708822</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M17" t="n">
-        <v>1255.426092822907</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N17" t="n">
-        <v>1477.907446338787</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O17" t="n">
-        <v>2043.006262107693</v>
+        <v>1555.101895514054</v>
       </c>
       <c r="P17" t="n">
-        <v>2214.851219993863</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q17" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470532</v>
       </c>
       <c r="R17" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S17" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.121651406712</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.121651406712</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="V17" t="n">
-        <v>2312.632236532962</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="W17" t="n">
-        <v>2312.632236532962</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="X17" t="n">
-        <v>1900.912237700709</v>
+        <v>2402.266025926285</v>
       </c>
       <c r="Y17" t="n">
-        <v>1592.494833270164</v>
+        <v>2402.266025926285</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>103.40274270939</v>
       </c>
       <c r="H18" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I18" t="n">
-        <v>91.91727079879398</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J18" t="n">
         <v>437.0998629761244</v>
@@ -5609,10 +5609,10 @@
         <v>1042.488611770604</v>
       </c>
       <c r="O18" t="n">
-        <v>1505.879242558995</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P18" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q18" t="n">
         <v>1709.617917594659</v>
@@ -5670,16 +5670,16 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I19" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J19" t="n">
         <v>161.2846086864215</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5722733880316</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L19" t="n">
-        <v>915.2083926800954</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M19" t="n">
         <v>1408.610993194761</v>
@@ -5688,37 +5688,37 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O19" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P19" t="n">
-        <v>2702.951323608642</v>
+        <v>2702.951323608643</v>
       </c>
       <c r="Q19" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R19" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S19" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T19" t="n">
-        <v>2610.068194395983</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U19" t="n">
-        <v>2329.920036177818</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V19" t="n">
-        <v>2048.208568785847</v>
+        <v>1923.657885734348</v>
       </c>
       <c r="W19" t="n">
-        <v>1773.35616495836</v>
+        <v>1648.805481906861</v>
       </c>
       <c r="X19" t="n">
-        <v>1530.792268404165</v>
+        <v>1406.241585352666</v>
       </c>
       <c r="Y19" t="n">
-        <v>1304.449500093908</v>
+        <v>1179.898817042408</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1718.953659525091</v>
+        <v>1312.571841779811</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.052929538391</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="D20" t="n">
-        <v>1292.052929538391</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="E20" t="n">
-        <v>1168.349454413622</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="F20" t="n">
-        <v>743.2252726030217</v>
+        <v>460.5469299825114</v>
       </c>
       <c r="G20" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="H20" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I20" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J20" t="n">
         <v>565.5174547184467</v>
       </c>
       <c r="K20" t="n">
-        <v>1202.931567334727</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.40816413382</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M20" t="n">
-        <v>1612.609055247906</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N20" t="n">
-        <v>1835.090408763786</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O20" t="n">
-        <v>2043.006262107693</v>
+        <v>1555.101895514054</v>
       </c>
       <c r="P20" t="n">
-        <v>2214.851219993863</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q20" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470532</v>
       </c>
       <c r="R20" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S20" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T20" t="n">
-        <v>2884.554422930747</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U20" t="n">
-        <v>2884.554422930747</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V20" t="n">
-        <v>2527.065008056997</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W20" t="n">
-        <v>2130.673658357344</v>
+        <v>1717.909111824921</v>
       </c>
       <c r="X20" t="n">
-        <v>1718.953659525091</v>
+        <v>1717.909111824921</v>
       </c>
       <c r="Y20" t="n">
-        <v>1718.953659525091</v>
+        <v>1312.571841779811</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H21" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I21" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J21" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K21" t="n">
-        <v>835.4672843374814</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L21" t="n">
-        <v>1093.841844291305</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.052972970405</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N21" t="n">
-        <v>1449.216356643059</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O21" t="n">
-        <v>1611.334742843901</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q21" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R21" t="n">
         <v>1839.929095123789</v>
@@ -5907,43 +5907,43 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I22" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J22" t="n">
-        <v>161.2846086864215</v>
+        <v>161.284608686422</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5722733880319</v>
+        <v>463.5722733880323</v>
       </c>
       <c r="L22" t="n">
-        <v>915.2083926800955</v>
+        <v>915.2083926800959</v>
       </c>
       <c r="M22" t="n">
         <v>1408.610993194761</v>
       </c>
       <c r="N22" t="n">
-        <v>1885.888822445158</v>
+        <v>1885.888822445159</v>
       </c>
       <c r="O22" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P22" t="n">
-        <v>2702.951323608642</v>
+        <v>2702.951323608643</v>
       </c>
       <c r="Q22" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R22" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S22" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T22" t="n">
-        <v>2468.39418677292</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U22" t="n">
-        <v>2329.920036177818</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V22" t="n">
         <v>2048.208568785847</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2487.254217339054</v>
+        <v>2487.254217339053</v>
       </c>
       <c r="C23" t="n">
         <v>2060.353487352354</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.060866537355</v>
+        <v>1637.060866537354</v>
       </c>
       <c r="E23" t="n">
         <v>1211.083926685212</v>
       </c>
       <c r="F23" t="n">
-        <v>785.9597448746118</v>
+        <v>785.9597448746117</v>
       </c>
       <c r="G23" t="n">
-        <v>383.1039033507153</v>
+        <v>383.103903350715</v>
       </c>
       <c r="H23" t="n">
         <v>100.425560730205</v>
@@ -5989,52 +5989,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J23" t="n">
-        <v>216.5227082824107</v>
+        <v>437.2758443106297</v>
       </c>
       <c r="K23" t="n">
-        <v>366.0324543050518</v>
+        <v>1337.700853095631</v>
       </c>
       <c r="L23" t="n">
-        <v>1525.063020731719</v>
+        <v>2496.731419522298</v>
       </c>
       <c r="M23" t="n">
-        <v>2767.829334768006</v>
+        <v>2714.932310636384</v>
       </c>
       <c r="N23" t="n">
-        <v>4003.468573376688</v>
+        <v>2937.413664152264</v>
       </c>
       <c r="O23" t="n">
-        <v>4671.578783049931</v>
+        <v>4027.491217409447</v>
       </c>
       <c r="P23" t="n">
-        <v>4843.423740936101</v>
+        <v>4199.336175295617</v>
       </c>
       <c r="Q23" t="n">
-        <v>4964.644076327785</v>
+        <v>4812.405418050035</v>
       </c>
       <c r="R23" t="n">
-        <v>5021.27803651025</v>
+        <v>5021.278036510252</v>
       </c>
       <c r="S23" t="n">
-        <v>4950.709638338039</v>
+        <v>4950.709638338041</v>
       </c>
       <c r="T23" t="n">
-        <v>4736.276866814004</v>
+        <v>4736.276866814006</v>
       </c>
       <c r="U23" t="n">
         <v>4478.040615081351</v>
       </c>
       <c r="V23" t="n">
-        <v>4120.5512002076</v>
+        <v>4120.551200207599</v>
       </c>
       <c r="W23" t="n">
-        <v>3724.159850507947</v>
+        <v>3724.159850507946</v>
       </c>
       <c r="X23" t="n">
-        <v>3312.439851675694</v>
+        <v>3312.439851675693</v>
       </c>
       <c r="Y23" t="n">
-        <v>2907.102581630585</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1944372259722</v>
+        <v>134.6517430703841</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2745369337115</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K24" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399328</v>
       </c>
       <c r="L24" t="n">
-        <v>1136.576316562895</v>
+        <v>729.8485716904402</v>
       </c>
       <c r="M24" t="n">
-        <v>1310.787445241995</v>
+        <v>904.0597003695407</v>
       </c>
       <c r="N24" t="n">
-        <v>1491.950828914649</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O24" t="n">
-        <v>1654.069215115491</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P24" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q24" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R24" t="n">
         <v>1882.663567395379</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3109.333137338281</v>
+        <v>1157.018003653432</v>
       </c>
       <c r="C25" t="n">
-        <v>2937.360574217197</v>
+        <v>985.045440532348</v>
       </c>
       <c r="D25" t="n">
-        <v>2774.043801343968</v>
+        <v>821.7286676591187</v>
       </c>
       <c r="E25" t="n">
-        <v>2607.835595496821</v>
+        <v>655.5204618119723</v>
       </c>
       <c r="F25" t="n">
-        <v>2497.887302518284</v>
+        <v>483.6586875865327</v>
       </c>
       <c r="G25" t="n">
-        <v>2332.295654640567</v>
+        <v>318.0670397088155</v>
       </c>
       <c r="H25" t="n">
-        <v>2194.414702038118</v>
+        <v>180.1860871063665</v>
       </c>
       <c r="I25" t="n">
-        <v>2194.414702038118</v>
+        <v>100.425560730205</v>
       </c>
       <c r="J25" t="n">
-        <v>2298.008222265924</v>
+        <v>204.0190809580116</v>
       </c>
       <c r="K25" t="n">
-        <v>2600.295886967535</v>
+        <v>506.306745659622</v>
       </c>
       <c r="L25" t="n">
-        <v>3051.932006259598</v>
+        <v>957.9428649516857</v>
       </c>
       <c r="M25" t="n">
-        <v>3545.334606774264</v>
+        <v>1451.345465466351</v>
       </c>
       <c r="N25" t="n">
-        <v>4022.612436024662</v>
+        <v>1928.623294716749</v>
       </c>
       <c r="O25" t="n">
-        <v>4470.209380606794</v>
+        <v>2376.220239298882</v>
       </c>
       <c r="P25" t="n">
-        <v>4839.674937188145</v>
+        <v>2745.685795880232</v>
       </c>
       <c r="Q25" t="n">
-        <v>5021.27803651025</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="R25" t="n">
-        <v>5004.154711938687</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S25" t="n">
-        <v>4845.614409406669</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T25" t="n">
-        <v>4605.117800352423</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U25" t="n">
-        <v>4324.969642134257</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V25" t="n">
-        <v>4043.258174742286</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W25" t="n">
-        <v>3768.405770914799</v>
+        <v>1816.090637229951</v>
       </c>
       <c r="X25" t="n">
-        <v>3525.841874360604</v>
+        <v>1573.526740675756</v>
       </c>
       <c r="Y25" t="n">
-        <v>3299.499106050346</v>
+        <v>1347.183972365498</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C26" t="n">
         <v>2060.353487352354</v>
@@ -6214,7 +6214,7 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9597448746117</v>
+        <v>785.9597448746118</v>
       </c>
       <c r="G26" t="n">
         <v>383.1039033507153</v>
@@ -6226,37 +6226,37 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J26" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K26" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L26" t="n">
-        <v>1525.063020731719</v>
+        <v>1700.153532574132</v>
       </c>
       <c r="M26" t="n">
-        <v>1743.263911845804</v>
+        <v>1918.354423688217</v>
       </c>
       <c r="N26" t="n">
-        <v>2978.903150454486</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O26" t="n">
-        <v>4068.980703711669</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P26" t="n">
-        <v>4843.423740936103</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q26" t="n">
-        <v>4964.644076327787</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R26" t="n">
-        <v>5021.278036510252</v>
+        <v>5021.27803651025</v>
       </c>
       <c r="S26" t="n">
-        <v>4950.70963833804</v>
+        <v>4950.709638338039</v>
       </c>
       <c r="T26" t="n">
-        <v>4736.276866814005</v>
+        <v>4736.276866814004</v>
       </c>
       <c r="U26" t="n">
         <v>4478.04061508135</v>
@@ -6302,31 +6302,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K27" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399327</v>
       </c>
       <c r="L27" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904401</v>
       </c>
       <c r="M27" t="n">
-        <v>588.4999020555376</v>
+        <v>904.0597003695406</v>
       </c>
       <c r="N27" t="n">
-        <v>769.6632857281909</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O27" t="n">
-        <v>1654.069215115491</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P27" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q27" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R27" t="n">
         <v>1882.663567395379</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.343996030368</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C28" t="n">
-        <v>843.3714329092841</v>
+        <v>860.4947574808471</v>
       </c>
       <c r="D28" t="n">
-        <v>680.0546600360548</v>
+        <v>697.1779846076178</v>
       </c>
       <c r="E28" t="n">
-        <v>655.5204618119723</v>
+        <v>530.9697787604713</v>
       </c>
       <c r="F28" t="n">
-        <v>483.6586875865327</v>
+        <v>359.1080045350317</v>
       </c>
       <c r="G28" t="n">
         <v>318.0670397088155</v>
@@ -6408,28 +6408,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R28" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S28" t="n">
-        <v>2751.625268098757</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T28" t="n">
-        <v>2511.128659044511</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U28" t="n">
-        <v>2230.980500826345</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V28" t="n">
-        <v>1949.269033434374</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W28" t="n">
-        <v>1674.416629606887</v>
+        <v>1691.53995417845</v>
       </c>
       <c r="X28" t="n">
-        <v>1431.852733052692</v>
+        <v>1448.976057624255</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.509964742434</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2487.254217339055</v>
+        <v>2487.254217339053</v>
       </c>
       <c r="C29" t="n">
-        <v>2060.353487352355</v>
+        <v>2060.353487352354</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.060866537355</v>
+        <v>1637.060866537354</v>
       </c>
       <c r="E29" t="n">
-        <v>1211.083926685213</v>
+        <v>1211.083926685212</v>
       </c>
       <c r="F29" t="n">
-        <v>785.9597448746129</v>
+        <v>785.9597448746117</v>
       </c>
       <c r="G29" t="n">
         <v>383.1039033507153</v>
@@ -6463,52 +6463,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J29" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K29" t="n">
-        <v>1116.947717067412</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L29" t="n">
-        <v>1382.182212719925</v>
+        <v>2667.707502201705</v>
       </c>
       <c r="M29" t="n">
-        <v>1600.383103834011</v>
+        <v>2885.908393315791</v>
       </c>
       <c r="N29" t="n">
-        <v>2836.022342442694</v>
+        <v>3108.389746831671</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.099895699876</v>
+        <v>4198.467300088854</v>
       </c>
       <c r="P29" t="n">
-        <v>4843.423740936103</v>
+        <v>4370.312257975024</v>
       </c>
       <c r="Q29" t="n">
-        <v>4964.644076327787</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R29" t="n">
-        <v>5021.278036510252</v>
+        <v>5021.27803651025</v>
       </c>
       <c r="S29" t="n">
-        <v>4950.709638338041</v>
+        <v>4950.709638338039</v>
       </c>
       <c r="T29" t="n">
-        <v>4736.276866814006</v>
+        <v>4736.276866814004</v>
       </c>
       <c r="U29" t="n">
-        <v>4478.040615081351</v>
+        <v>4478.040615081349</v>
       </c>
       <c r="V29" t="n">
-        <v>4120.5512002076</v>
+        <v>4120.551200207598</v>
       </c>
       <c r="W29" t="n">
-        <v>3724.159850507947</v>
+        <v>3724.159850507946</v>
       </c>
       <c r="X29" t="n">
-        <v>3312.439851675695</v>
+        <v>3312.439851675693</v>
       </c>
       <c r="Y29" t="n">
-        <v>2907.102581630585</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K30" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399327</v>
       </c>
       <c r="L30" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904401</v>
       </c>
       <c r="M30" t="n">
-        <v>588.4999020555376</v>
+        <v>904.0597003695406</v>
       </c>
       <c r="N30" t="n">
-        <v>769.6632857281909</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O30" t="n">
-        <v>931.781671929033</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P30" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q30" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R30" t="n">
         <v>1882.663567395379</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1032.467320601931</v>
+        <v>1157.018003653432</v>
       </c>
       <c r="C31" t="n">
-        <v>985.045440532348</v>
+        <v>985.0454405323479</v>
       </c>
       <c r="D31" t="n">
-        <v>821.7286676591187</v>
+        <v>821.7286676591186</v>
       </c>
       <c r="E31" t="n">
-        <v>655.5204618119723</v>
+        <v>655.5204618119722</v>
       </c>
       <c r="F31" t="n">
-        <v>483.6586875865327</v>
+        <v>483.6586875865326</v>
       </c>
       <c r="G31" t="n">
         <v>318.0670397088155</v>
@@ -6654,19 +6654,19 @@
         <v>2528.251983616074</v>
       </c>
       <c r="U31" t="n">
-        <v>2248.103825397908</v>
+        <v>2372.654508449408</v>
       </c>
       <c r="V31" t="n">
-        <v>1966.392358005937</v>
+        <v>2090.943041057437</v>
       </c>
       <c r="W31" t="n">
-        <v>1691.53995417845</v>
+        <v>1816.09063722995</v>
       </c>
       <c r="X31" t="n">
-        <v>1448.976057624255</v>
+        <v>1573.526740675755</v>
       </c>
       <c r="Y31" t="n">
-        <v>1222.633289313997</v>
+        <v>1347.183972365498</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2487.254217339053</v>
       </c>
       <c r="C32" t="n">
-        <v>2060.353487352354</v>
+        <v>2060.353487352353</v>
       </c>
       <c r="D32" t="n">
         <v>1637.060866537354</v>
@@ -6688,7 +6688,7 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9597448746117</v>
+        <v>785.9597448746118</v>
       </c>
       <c r="G32" t="n">
         <v>383.1039033507153</v>
@@ -6700,52 +6700,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J32" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K32" t="n">
-        <v>366.0324543050518</v>
+        <v>1417.372212364221</v>
       </c>
       <c r="L32" t="n">
-        <v>1483.573534429496</v>
+        <v>1608.848809163315</v>
       </c>
       <c r="M32" t="n">
-        <v>1701.774425543582</v>
+        <v>2851.615123199601</v>
       </c>
       <c r="N32" t="n">
-        <v>2937.413664152264</v>
+        <v>3074.096476715481</v>
       </c>
       <c r="O32" t="n">
-        <v>4027.491217409447</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P32" t="n">
-        <v>4199.336175295617</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q32" t="n">
-        <v>4812.405418050035</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R32" t="n">
-        <v>5021.278036510252</v>
+        <v>5021.27803651025</v>
       </c>
       <c r="S32" t="n">
-        <v>4950.709638338041</v>
+        <v>4950.709638338039</v>
       </c>
       <c r="T32" t="n">
-        <v>4736.276866814006</v>
+        <v>4736.276866814004</v>
       </c>
       <c r="U32" t="n">
-        <v>4478.040615081351</v>
+        <v>4478.040615081349</v>
       </c>
       <c r="V32" t="n">
-        <v>4120.551200207599</v>
+        <v>4120.551200207598</v>
       </c>
       <c r="W32" t="n">
-        <v>3724.159850507946</v>
+        <v>3724.159850507945</v>
       </c>
       <c r="X32" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675692</v>
       </c>
       <c r="Y32" t="n">
-        <v>2907.102581630584</v>
+        <v>2907.102581630583</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J33" t="n">
-        <v>456.3770294033027</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K33" t="n">
-        <v>559.799533295521</v>
+        <v>583.2568391399327</v>
       </c>
       <c r="L33" t="n">
-        <v>706.3912658460283</v>
+        <v>729.8485716904401</v>
       </c>
       <c r="M33" t="n">
-        <v>880.6023945251288</v>
+        <v>904.0597003695406</v>
       </c>
       <c r="N33" t="n">
-        <v>1491.950828914649</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O33" t="n">
-        <v>1654.069215115491</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P33" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q33" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R33" t="n">
         <v>1882.663567395379</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1157.018003653432</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C34" t="n">
-        <v>985.045440532348</v>
+        <v>985.0454405323479</v>
       </c>
       <c r="D34" t="n">
-        <v>821.7286676591187</v>
+        <v>821.7286676591186</v>
       </c>
       <c r="E34" t="n">
-        <v>655.5204618119723</v>
+        <v>655.5204618119722</v>
       </c>
       <c r="F34" t="n">
-        <v>483.6586875865327</v>
+        <v>483.6586875865326</v>
       </c>
       <c r="G34" t="n">
         <v>318.0670397088155</v>
@@ -6903,7 +6903,7 @@
         <v>1448.976057624255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1347.183972365498</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1036.824668538167</v>
+        <v>1169.202212455164</v>
       </c>
       <c r="C35" t="n">
-        <v>609.9239385514668</v>
+        <v>1169.202212455164</v>
       </c>
       <c r="D35" t="n">
-        <v>609.9239385514668</v>
+        <v>1169.202212455164</v>
       </c>
       <c r="E35" t="n">
-        <v>482.8152702692147</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="F35" t="n">
-        <v>57.69108845861494</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="G35" t="n">
-        <v>57.69108845861494</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H35" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I35" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552354</v>
       </c>
       <c r="J35" t="n">
         <v>565.5174547184467</v>
@@ -6949,13 +6949,13 @@
         <v>1124.704688654267</v>
       </c>
       <c r="N35" t="n">
-        <v>1682.851750486035</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.767603829942</v>
+        <v>1555.101895514054</v>
       </c>
       <c r="P35" t="n">
-        <v>2062.612561716112</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q35" t="n">
         <v>2675.681804470531</v>
@@ -6964,25 +6964,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S35" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.121651406712</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.121651406712</v>
+        <v>2555.749773025882</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.121651406712</v>
+        <v>2198.260358152132</v>
       </c>
       <c r="W35" t="n">
-        <v>2273.730301707059</v>
+        <v>2198.260358152132</v>
       </c>
       <c r="X35" t="n">
-        <v>1862.010302874806</v>
+        <v>1994.387846791804</v>
       </c>
       <c r="Y35" t="n">
-        <v>1456.673032829697</v>
+        <v>1589.050576746694</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H36" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I36" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J36" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K36" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L36" t="n">
-        <v>371.5543011048471</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M36" t="n">
-        <v>735.2891369676987</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N36" t="n">
-        <v>1449.216356643059</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O36" t="n">
-        <v>1611.334742843901</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q36" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R36" t="n">
         <v>1839.929095123789</v>
@@ -7092,7 +7092,7 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I37" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J37" t="n">
         <v>161.2846086864215</v>
@@ -7101,7 +7101,7 @@
         <v>463.5722733880319</v>
       </c>
       <c r="L37" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800955</v>
       </c>
       <c r="M37" t="n">
         <v>1408.610993194761</v>
@@ -7122,19 +7122,19 @@
         <v>2867.431098359184</v>
       </c>
       <c r="S37" t="n">
-        <v>2850.56480345023</v>
+        <v>2708.890795827167</v>
       </c>
       <c r="T37" t="n">
-        <v>2610.068194395983</v>
+        <v>2468.394186772921</v>
       </c>
       <c r="U37" t="n">
-        <v>2329.920036177818</v>
+        <v>2188.246028554755</v>
       </c>
       <c r="V37" t="n">
-        <v>2048.208568785847</v>
+        <v>1906.534561162784</v>
       </c>
       <c r="W37" t="n">
-        <v>1773.35616495836</v>
+        <v>1631.682157335297</v>
       </c>
       <c r="X37" t="n">
         <v>1530.792268404165</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1647.648789761856</v>
+        <v>1577.080391589645</v>
       </c>
       <c r="C38" t="n">
-        <v>1220.748059775156</v>
+        <v>1150.179661602945</v>
       </c>
       <c r="D38" t="n">
-        <v>797.455438960156</v>
+        <v>726.8870407879456</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4784991080136</v>
+        <v>300.9101009358031</v>
       </c>
       <c r="F38" t="n">
-        <v>371.4784991080136</v>
+        <v>300.9101009358031</v>
       </c>
       <c r="G38" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H38" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I38" t="n">
         <v>79.53261889552354</v>
@@ -7177,49 +7177,49 @@
         <v>565.5174547184467</v>
       </c>
       <c r="K38" t="n">
-        <v>1279.444674393807</v>
+        <v>1050.692909056976</v>
       </c>
       <c r="L38" t="n">
-        <v>1734.018413218806</v>
+        <v>1242.16950585607</v>
       </c>
       <c r="M38" t="n">
-        <v>1952.219304332891</v>
+        <v>1460.370396970155</v>
       </c>
       <c r="N38" t="n">
-        <v>2174.700657848771</v>
+        <v>1682.851750486035</v>
       </c>
       <c r="O38" t="n">
-        <v>2382.616511192678</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P38" t="n">
-        <v>2554.461469078848</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q38" t="n">
-        <v>2675.681804470532</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R38" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S38" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T38" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U38" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="W38" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="X38" t="n">
-        <v>2472.834424098495</v>
+        <v>2402.266025926285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2067.497154053386</v>
+        <v>1996.928755881175</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H39" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I39" t="n">
-        <v>68.45996495438216</v>
+        <v>68.45996495438214</v>
       </c>
       <c r="J39" t="n">
-        <v>413.6425571317126</v>
+        <v>357.162563079711</v>
       </c>
       <c r="K39" t="n">
-        <v>517.0650610239309</v>
+        <v>460.5850669719293</v>
       </c>
       <c r="L39" t="n">
-        <v>663.6567935744382</v>
+        <v>607.1767995224367</v>
       </c>
       <c r="M39" t="n">
-        <v>837.8679222535387</v>
+        <v>781.3879282015372</v>
       </c>
       <c r="N39" t="n">
-        <v>1019.031305926192</v>
+        <v>962.5513118741904</v>
       </c>
       <c r="O39" t="n">
-        <v>1181.149692127034</v>
+        <v>1124.669698075033</v>
       </c>
       <c r="P39" t="n">
-        <v>1308.122366398075</v>
+        <v>1251.642372346073</v>
       </c>
       <c r="Q39" t="n">
         <v>1815.073417879565</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1034.52300500568</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C40" t="n">
-        <v>862.5504418845964</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D40" t="n">
-        <v>699.2336690113671</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.0254631642206</v>
+        <v>488.2353064888815</v>
       </c>
       <c r="F40" t="n">
-        <v>361.163688938781</v>
+        <v>316.3735322634419</v>
       </c>
       <c r="G40" t="n">
-        <v>195.5720410610639</v>
+        <v>150.7818843857248</v>
       </c>
       <c r="H40" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I40" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J40" t="n">
-        <v>161.284608686422</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5722733880324</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L40" t="n">
-        <v>915.208392680096</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M40" t="n">
         <v>1408.610993194761</v>
@@ -7350,34 +7350,34 @@
         <v>2333.485767027292</v>
       </c>
       <c r="P40" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q40" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R40" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S40" t="n">
-        <v>2726.014120398731</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T40" t="n">
         <v>2485.517511344484</v>
       </c>
       <c r="U40" t="n">
-        <v>2205.369353126319</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V40" t="n">
-        <v>1923.657885734348</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W40" t="n">
-        <v>1648.805481906861</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X40" t="n">
-        <v>1451.031742028004</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1224.688973717746</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2059.368788594108</v>
+        <v>1577.080391589645</v>
       </c>
       <c r="C41" t="n">
-        <v>1632.468058607408</v>
+        <v>1150.179661602945</v>
       </c>
       <c r="D41" t="n">
-        <v>1209.175437792409</v>
+        <v>726.8870407879456</v>
       </c>
       <c r="E41" t="n">
-        <v>783.1984979402661</v>
+        <v>300.9101009358031</v>
       </c>
       <c r="F41" t="n">
-        <v>358.0743161296663</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G41" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H41" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I41" t="n">
         <v>79.53261889552354</v>
       </c>
       <c r="J41" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2979820334617</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L41" t="n">
-        <v>1037.225201708822</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M41" t="n">
-        <v>1751.152421384182</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N41" t="n">
-        <v>1973.633774900062</v>
+        <v>1682.851750486035</v>
       </c>
       <c r="O41" t="n">
-        <v>2534.855169470429</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P41" t="n">
-        <v>2706.700127356599</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q41" t="n">
-        <v>2827.920462748283</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R41" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="W41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="X41" t="n">
-        <v>2884.554422930748</v>
+        <v>2402.266025926285</v>
       </c>
       <c r="Y41" t="n">
-        <v>2479.217152885638</v>
+        <v>1996.928755881175</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H42" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I42" t="n">
-        <v>68.45996495438216</v>
+        <v>68.45996495438214</v>
       </c>
       <c r="J42" t="n">
-        <v>357.1625630797112</v>
+        <v>413.6425571317126</v>
       </c>
       <c r="K42" t="n">
-        <v>460.5850669719295</v>
+        <v>517.0650610239309</v>
       </c>
       <c r="L42" t="n">
-        <v>607.1767995224368</v>
+        <v>663.6567935744382</v>
       </c>
       <c r="M42" t="n">
-        <v>781.3879282015373</v>
+        <v>837.8679222535387</v>
       </c>
       <c r="N42" t="n">
-        <v>962.5513118741904</v>
+        <v>1019.031305926192</v>
       </c>
       <c r="O42" t="n">
-        <v>1124.669698075033</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P42" t="n">
-        <v>1251.642372346073</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q42" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R42" t="n">
         <v>1839.929095123789</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.7328483303422</v>
+        <v>1114.283531381842</v>
       </c>
       <c r="C43" t="n">
-        <v>817.7602852092582</v>
+        <v>942.3109682607579</v>
       </c>
       <c r="D43" t="n">
-        <v>654.4435123360289</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E43" t="n">
-        <v>488.2353064888824</v>
+        <v>612.7859895403822</v>
       </c>
       <c r="F43" t="n">
-        <v>316.3735322634428</v>
+        <v>440.9242153149426</v>
       </c>
       <c r="G43" t="n">
-        <v>150.7818843857257</v>
+        <v>275.3325674372254</v>
       </c>
       <c r="H43" t="n">
-        <v>57.69108845861496</v>
+        <v>137.4516148347764</v>
       </c>
       <c r="I43" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J43" t="n">
         <v>161.2846086864215</v>
@@ -7575,7 +7575,7 @@
         <v>463.5722733880319</v>
       </c>
       <c r="L43" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800955</v>
       </c>
       <c r="M43" t="n">
         <v>1408.610993194761</v>
@@ -7590,31 +7590,31 @@
         <v>2702.951323608642</v>
       </c>
       <c r="Q43" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R43" t="n">
-        <v>2884.554422930748</v>
+        <v>2867.431098359184</v>
       </c>
       <c r="S43" t="n">
-        <v>2726.014120398731</v>
+        <v>2708.890795827167</v>
       </c>
       <c r="T43" t="n">
-        <v>2485.517511344484</v>
+        <v>2468.394186772921</v>
       </c>
       <c r="U43" t="n">
-        <v>2205.369353126319</v>
+        <v>2188.246028554755</v>
       </c>
       <c r="V43" t="n">
-        <v>1923.657885734348</v>
+        <v>1906.534561162784</v>
       </c>
       <c r="W43" t="n">
-        <v>1648.805481906861</v>
+        <v>1773.35616495836</v>
       </c>
       <c r="X43" t="n">
-        <v>1406.241585352666</v>
+        <v>1530.792268404165</v>
       </c>
       <c r="Y43" t="n">
-        <v>1179.898817042408</v>
+        <v>1304.449500093908</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2021.227124252464</v>
+        <v>1801.132536861453</v>
       </c>
       <c r="C44" t="n">
-        <v>1594.326394265764</v>
+        <v>1801.132536861453</v>
       </c>
       <c r="D44" t="n">
-        <v>1594.326394265764</v>
+        <v>1377.839916046453</v>
       </c>
       <c r="E44" t="n">
-        <v>1168.349454413622</v>
+        <v>951.8629761943106</v>
       </c>
       <c r="F44" t="n">
         <v>743.2252726030217</v>
@@ -7642,58 +7642,58 @@
         <v>340.3694310791253</v>
       </c>
       <c r="H44" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I44" t="n">
         <v>79.53261889552354</v>
       </c>
       <c r="J44" t="n">
-        <v>565.5174547184467</v>
+        <v>359.1009012451453</v>
       </c>
       <c r="K44" t="n">
-        <v>715.0272007410879</v>
+        <v>508.6106472677865</v>
       </c>
       <c r="L44" t="n">
-        <v>906.5037975401813</v>
+        <v>700.0872440668799</v>
       </c>
       <c r="M44" t="n">
-        <v>1124.704688654267</v>
+        <v>918.2881351809655</v>
       </c>
       <c r="N44" t="n">
-        <v>1347.186042170147</v>
+        <v>1140.769488696846</v>
       </c>
       <c r="O44" t="n">
-        <v>1555.101895514054</v>
+        <v>1348.685342040753</v>
       </c>
       <c r="P44" t="n">
-        <v>2269.029115189414</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q44" t="n">
-        <v>2827.920462748283</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R44" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S44" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="T44" t="n">
-        <v>2599.553253234503</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="U44" t="n">
-        <v>2599.553253234503</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="V44" t="n">
-        <v>2599.553253234503</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="W44" t="n">
-        <v>2599.553253234503</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="X44" t="n">
-        <v>2187.83325440225</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="Y44" t="n">
-        <v>2187.83325440225</v>
+        <v>2220.980901152983</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H45" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I45" t="n">
-        <v>68.45996495438216</v>
+        <v>68.45996495438214</v>
       </c>
       <c r="J45" t="n">
-        <v>121.5400646621215</v>
+        <v>357.162563079711</v>
       </c>
       <c r="K45" t="n">
-        <v>835.4672843374816</v>
+        <v>460.5850669719293</v>
       </c>
       <c r="L45" t="n">
-        <v>1093.841844291305</v>
+        <v>607.1767995224367</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.052972970405</v>
+        <v>781.3879282015372</v>
       </c>
       <c r="N45" t="n">
-        <v>1449.216356643059</v>
+        <v>962.5513118741904</v>
       </c>
       <c r="O45" t="n">
-        <v>1611.334742843901</v>
+        <v>1124.669698075033</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.307417114941</v>
+        <v>1251.642372346073</v>
       </c>
       <c r="Q45" t="n">
         <v>1815.073417879565</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1114.283531381842</v>
+        <v>1034.52300500568</v>
       </c>
       <c r="C46" t="n">
-        <v>942.3109682607579</v>
+        <v>862.5504418845964</v>
       </c>
       <c r="D46" t="n">
-        <v>778.9941953875286</v>
+        <v>699.2336690113671</v>
       </c>
       <c r="E46" t="n">
-        <v>612.7859895403822</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F46" t="n">
-        <v>440.9242153149426</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G46" t="n">
-        <v>275.3325674372254</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H46" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I46" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J46" t="n">
         <v>161.2846086864215</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5722733880319</v>
+        <v>463.572273388032</v>
       </c>
       <c r="L46" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800957</v>
       </c>
       <c r="M46" t="n">
         <v>1408.610993194761</v>
@@ -7821,37 +7821,37 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O46" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P46" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q46" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R46" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S46" t="n">
-        <v>2850.56480345023</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T46" t="n">
-        <v>2610.068194395983</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U46" t="n">
-        <v>2329.920036177818</v>
+        <v>2250.159509801657</v>
       </c>
       <c r="V46" t="n">
-        <v>2048.208568785847</v>
+        <v>1968.448042409686</v>
       </c>
       <c r="W46" t="n">
-        <v>1773.35616495836</v>
+        <v>1693.595638582199</v>
       </c>
       <c r="X46" t="n">
-        <v>1530.792268404165</v>
+        <v>1451.031742028004</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.449500093908</v>
+        <v>1224.688973717746</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>63.88091092762902</v>
@@ -7987,22 +7987,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>64.25992043664672</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>64.55565941243201</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>50.51554396615302</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>50.15218732442293</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q3" t="n">
         <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
-        <v>50.65321699634485</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>47.61705358610257</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>21.91875989570122</v>
@@ -8154,7 +8154,7 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>63.14896002761616</v>
+        <v>62.01294749699718</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K6" t="n">
-        <v>41.85766985784532</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>50.63139684704925</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,7 +8309,7 @@
         <v>49.45933834636135</v>
       </c>
       <c r="O6" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8318,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.61705358610257</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>48.89905749790193</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>50.69175002430551</v>
       </c>
       <c r="N7" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O7" t="n">
         <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8464,19 +8464,19 @@
         <v>65.54757303225151</v>
       </c>
       <c r="N8" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>64.55565941243201</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>63.10497220679875</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>41.97352273874154</v>
       </c>
       <c r="M9" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>50.15218732442293</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
         <v>21.91875989570122</v>
@@ -8622,16 +8622,16 @@
         <v>50.69175002430551</v>
       </c>
       <c r="N10" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>49.47948510062515</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>51.59986036698565</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>360.7908711363621</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>527.7279018952187</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>500.7336652134086</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>335.1396839569188</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>328.00964690097</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8862,7 +8862,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -8929,13 +8929,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>570.1186602552715</v>
+        <v>570.1186602552717</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>419.5311114178344</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>419.5311114178339</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>54.20065258674768</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>545.1677686830906</v>
       </c>
       <c r="N15" t="n">
-        <v>30.17929040124528</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>592.8833791962818</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039393</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>527.7279018952187</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>360.7908711363621</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>339.0562710261505</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>304.3153985732818</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9336,7 +9336,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>492.8326935289281</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>339.0562710261505</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>616.6714300839815</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>112.9119468720365</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>222.9829656850697</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>464.8427841710463</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>729.5833769560178</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>51.61515110920001</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>608.6849286245086</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>729.5833769560179</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>74.50292813476756</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.1139643265916</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>729.5833769560178</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>666.273272072266</v>
       </c>
       <c r="L32" t="n">
-        <v>935.418670025607</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1034.914568608284</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>434.5303542594612</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>339.0562710261495</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>339.0562710261501</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>191.4380880643951</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>538.1452888916228</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>570.1186602552717</v>
+        <v>339.0562710261499</v>
       </c>
       <c r="L38" t="n">
-        <v>265.7546889150557</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>238.0025236541309</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>434.5303542594613</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961652</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>527.7279018952189</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>500.7336652134086</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>339.0562710261498</v>
       </c>
       <c r="O41" t="n">
-        <v>356.8742840671317</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>238.002523654131</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>328.0096469009703</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039393</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>187.1845103377017</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>547.5578401911009</v>
+        <v>547.5578401911008</v>
       </c>
       <c r="Q44" t="n">
-        <v>442.0919314820049</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>238.0025236541309</v>
       </c>
       <c r="K45" t="n">
-        <v>616.6714300839817</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>112.9119468720363</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548569</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.8272831086575</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>158.376934991747</v>
       </c>
       <c r="Y11" t="n">
-        <v>104.6273303659606</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>140.2572675468326</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>140.257267546832</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>217.8079034923426</v>
       </c>
       <c r="E14" t="n">
-        <v>171.7084498584515</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.8272831086575</v>
       </c>
       <c r="H14" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>123.3051762209856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>123.3051762209847</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>177.6295034040765</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U17" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>95.95066695841899</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>123.3051762209846</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>140.2572675468326</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>299.2507300800989</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>129.1681461475119</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>140.2572675468327</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>123.3051762209844</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>61.29434643443335</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>123.3051762209859</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>140.2572675468333</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>123.3051762209859</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>123.3051762209859</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>123.3051762209853</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>123.3051762209858</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.305176220986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>295.8795888541915</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>205.7690125972057</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>140.2572675468325</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>140.257267546833</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>88.17774656575284</v>
+        <v>158.0404607562412</v>
       </c>
       <c r="H38" t="n">
         <v>279.8515591943052</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.2884438087945</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>44.34225510858573</v>
       </c>
       <c r="I40" t="n">
         <v>78.96292111239987</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>44.34225510858474</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>180.0861176400774</v>
       </c>
       <c r="G41" t="n">
-        <v>101.4478877143167</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H41" t="n">
         <v>279.8515591943052</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.2884438087945</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>44.34225510858482</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>140.2572675468328</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.7098118003264</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>214.3216134371178</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S46" t="n">
-        <v>140.2572675468316</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>44.34225510858533</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457805.4774535351</v>
+        <v>457805.4774535352</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457805.4774535352</v>
+        <v>457805.4774535353</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>669288.1476756688</v>
+        <v>669288.1476756689</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>669288.1476756689</v>
+        <v>669288.1476756688</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669288.1476756689</v>
+        <v>669288.1476756688</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457805.4774535353</v>
+        <v>457805.4774535352</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457805.4774535353</v>
+        <v>457805.4774535352</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>465954.1344089305</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089306</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089307</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="E2" t="n">
         <v>331249.4186387284</v>
       </c>
       <c r="F2" t="n">
+        <v>331249.4186387282</v>
+      </c>
+      <c r="G2" t="n">
         <v>331249.4186387283</v>
-      </c>
-      <c r="G2" t="n">
-        <v>331249.4186387284</v>
       </c>
       <c r="H2" t="n">
         <v>331249.4186387283</v>
       </c>
       <c r="I2" t="n">
+        <v>463261.194872031</v>
+      </c>
+      <c r="J2" t="n">
+        <v>463261.194872031</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463261.1948720314</v>
+      </c>
+      <c r="L2" t="n">
         <v>463261.1948720312</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463261.1948720313</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463261.1948720312</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463261.1948720309</v>
       </c>
       <c r="M2" t="n">
         <v>331249.4186387283</v>
       </c>
       <c r="N2" t="n">
-        <v>331249.4186387284</v>
+        <v>331249.4186387282</v>
       </c>
       <c r="O2" t="n">
-        <v>331249.4186387282</v>
+        <v>331249.4186387283</v>
       </c>
       <c r="P2" t="n">
-        <v>331249.4186387284</v>
+        <v>331249.4186387283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142049.9200116687</v>
+        <v>142049.9200116688</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391613</v>
+        <v>7356.463848391375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>39583.91030305262</v>
+        <v>39583.91030305273</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>319001.8568014398</v>
       </c>
       <c r="E4" t="n">
-        <v>65005.01999115716</v>
+        <v>65005.01999115721</v>
       </c>
       <c r="F4" t="n">
-        <v>65005.01999115718</v>
+        <v>65005.0199911572</v>
       </c>
       <c r="G4" t="n">
-        <v>65005.01999115717</v>
+        <v>65005.01999115721</v>
       </c>
       <c r="H4" t="n">
-        <v>65005.01999115717</v>
+        <v>65005.01999115721</v>
       </c>
       <c r="I4" t="n">
         <v>119976.2537175288</v>
@@ -26444,22 +26444,22 @@
         <v>119976.2537175288</v>
       </c>
       <c r="K4" t="n">
-        <v>119976.2537175288</v>
+        <v>119976.2537175287</v>
       </c>
       <c r="L4" t="n">
         <v>119976.2537175288</v>
       </c>
       <c r="M4" t="n">
+        <v>65005.0199911572</v>
+      </c>
+      <c r="N4" t="n">
+        <v>65005.0199911572</v>
+      </c>
+      <c r="O4" t="n">
+        <v>65005.01999115719</v>
+      </c>
+      <c r="P4" t="n">
         <v>65005.01999115718</v>
-      </c>
-      <c r="N4" t="n">
-        <v>65005.01999115722</v>
-      </c>
-      <c r="O4" t="n">
-        <v>65005.01999115723</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65005.01999115721</v>
       </c>
     </row>
     <row r="5">
@@ -26481,28 +26481,28 @@
         <v>51807.93193102434</v>
       </c>
       <c r="F5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="G5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="H5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="I5" t="n">
+        <v>84286.13085743281</v>
+      </c>
+      <c r="J5" t="n">
         <v>84286.13085743278</v>
       </c>
-      <c r="J5" t="n">
-        <v>84286.13085743281</v>
-      </c>
       <c r="K5" t="n">
-        <v>84286.13085743281</v>
+        <v>84286.13085743278</v>
       </c>
       <c r="L5" t="n">
-        <v>84286.13085743281</v>
+        <v>84286.13085743278</v>
       </c>
       <c r="M5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="N5" t="n">
         <v>51807.93193102434</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102192.7837507743</v>
+        <v>102192.7837507744</v>
       </c>
       <c r="C6" t="n">
-        <v>111615.2059514154</v>
+        <v>111615.2059514153</v>
       </c>
       <c r="D6" t="n">
-        <v>111615.2059514155</v>
+        <v>111615.2059514153</v>
       </c>
       <c r="E6" t="n">
-        <v>-285937.0766482498</v>
+        <v>-286358.0288850318</v>
       </c>
       <c r="F6" t="n">
-        <v>214436.4667165469</v>
+        <v>214015.5144797647</v>
       </c>
       <c r="G6" t="n">
-        <v>214436.4667165469</v>
+        <v>214015.5144797649</v>
       </c>
       <c r="H6" t="n">
-        <v>214436.4667165468</v>
+        <v>214015.5144797649</v>
       </c>
       <c r="I6" t="n">
-        <v>116948.890285401</v>
+        <v>116940.4748493478</v>
       </c>
       <c r="J6" t="n">
-        <v>251642.346448678</v>
+        <v>251633.9310126253</v>
       </c>
       <c r="K6" t="n">
-        <v>258998.8102970695</v>
+        <v>258990.3948610171</v>
       </c>
       <c r="L6" t="n">
-        <v>258998.8102970693</v>
+        <v>258990.3948610167</v>
       </c>
       <c r="M6" t="n">
-        <v>174852.5564134942</v>
+        <v>174431.6041767121</v>
       </c>
       <c r="N6" t="n">
-        <v>214436.4667165468</v>
+        <v>214015.5144797648</v>
       </c>
       <c r="O6" t="n">
-        <v>214436.4667165466</v>
+        <v>214015.5144797649</v>
       </c>
       <c r="P6" t="n">
-        <v>214436.4667165468</v>
+        <v>214015.5144797649</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>365.2616835998615</v>
+        <v>365.2616835998614</v>
       </c>
       <c r="F3" t="n">
         <v>365.2616835998614</v>
@@ -26798,40 +26798,40 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
+        <v>721.138605732687</v>
+      </c>
+      <c r="F4" t="n">
+        <v>721.138605732687</v>
+      </c>
+      <c r="G4" t="n">
+        <v>721.138605732687</v>
+      </c>
+      <c r="H4" t="n">
+        <v>721.138605732687</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1255.319509127563</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1255.319509127562</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1255.319509127562</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1255.319509127562</v>
+      </c>
+      <c r="M4" t="n">
         <v>721.1386057326869</v>
       </c>
-      <c r="F4" t="n">
-        <v>721.1386057326868</v>
-      </c>
-      <c r="G4" t="n">
-        <v>721.1386057326868</v>
-      </c>
-      <c r="H4" t="n">
-        <v>721.1386057326868</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1255.319509127562</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1255.319509127563</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1255.319509127563</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1255.319509127563</v>
-      </c>
-      <c r="M4" t="n">
-        <v>721.1386057326868</v>
-      </c>
       <c r="N4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="O4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="P4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>365.2616835998615</v>
+        <v>365.2616835998614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>693.0222955998672</v>
+        <v>693.0222955998673</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>534.1809033948757</v>
+        <v>534.1809033948759</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013282022</v>
+        <v>28.11631013281931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>158.8413922049912</v>
+        <v>158.8413922049917</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>693.0222955998672</v>
+        <v>693.0222955998673</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>99.52142919304239</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
         <v>102.8015588998678</v>
@@ -27472,10 +27472,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>28.07748634032594</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>154.80420398674</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -27523,7 +27523,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>137.0777268060162</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27548,10 +27548,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>145.3783105181976</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8295540437226</v>
+        <v>136.4780898758905</v>
       </c>
       <c r="H4" t="n">
         <v>114.2419956741075</v>
@@ -27590,7 +27590,7 @@
         <v>140.3173868732368</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27782,13 +27782,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>136.4298136558553</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0268463503655</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>212.7896441635393</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>249.2662938818791</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27842,7 +27842,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>199.3144946621678</v>
       </c>
     </row>
     <row r="8">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.52142919304239</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
@@ -27940,13 +27940,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F9" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>93.11323406457203</v>
+        <v>64.99692393175235</v>
       </c>
       <c r="H9" t="n">
         <v>24.72602217249382</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>55.74615899937044</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
         <v>140.4611363452985</v>
@@ -27991,7 +27991,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V9" t="n">
-        <v>174.8070973393067</v>
+        <v>178.1585615071388</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>163.4994630599574</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>142.1365273570535</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,16 +28067,16 @@
         <v>212.7896441635393</v>
       </c>
       <c r="U10" t="n">
-        <v>252.6177580497112</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>15.03813554640032</v>
       </c>
       <c r="I11" t="n">
-        <v>56.61005450043684</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J11" t="n">
         <v>124.6276535414422</v>
       </c>
       <c r="K11" t="n">
-        <v>186.7845462722247</v>
+        <v>186.7845462722246</v>
       </c>
       <c r="L11" t="n">
-        <v>231.7227462700911</v>
+        <v>231.722746270091</v>
       </c>
       <c r="M11" t="n">
-        <v>257.8362034187103</v>
+        <v>257.8362034187102</v>
       </c>
       <c r="N11" t="n">
-        <v>262.0082627494766</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O11" t="n">
-        <v>247.4069728347183</v>
+        <v>247.4069728347182</v>
       </c>
       <c r="P11" t="n">
         <v>211.1561273518174</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.5694578285208</v>
+        <v>158.5694578285207</v>
       </c>
       <c r="R11" t="n">
-        <v>92.23867028112484</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S11" t="n">
         <v>33.4609069951029</v>
       </c>
       <c r="T11" t="n">
-        <v>6.427871437018666</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U11" t="n">
         <v>0.1174710942230709</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7856572062336644</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H12" t="n">
-        <v>7.587794597046181</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I12" t="n">
         <v>27.05003977602748</v>
       </c>
       <c r="J12" t="n">
-        <v>74.22737666438319</v>
+        <v>74.22737666438317</v>
       </c>
       <c r="K12" t="n">
         <v>126.8664094820387</v>
@@ -31855,7 +31855,7 @@
         <v>204.3363450546055</v>
       </c>
       <c r="O12" t="n">
-        <v>186.9278353796386</v>
+        <v>186.9278353796385</v>
       </c>
       <c r="P12" t="n">
         <v>150.0260677412337</v>
@@ -31870,7 +31870,7 @@
         <v>14.59323801929634</v>
       </c>
       <c r="T12" t="n">
-        <v>3.166749879512006</v>
+        <v>3.166749879512005</v>
       </c>
       <c r="U12" t="n">
         <v>0.05168797409432004</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.658668609770242</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H13" t="n">
-        <v>5.856162730502701</v>
+        <v>5.8561627305027</v>
       </c>
       <c r="I13" t="n">
         <v>19.80796146472692</v>
@@ -31922,34 +31922,34 @@
         <v>46.5678707107561</v>
       </c>
       <c r="K13" t="n">
-        <v>76.52531666239719</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L13" t="n">
-        <v>97.92605858347763</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M13" t="n">
-        <v>103.2492985297117</v>
+        <v>103.2492985297116</v>
       </c>
       <c r="N13" t="n">
-        <v>100.7942609842045</v>
+        <v>100.7942609842044</v>
       </c>
       <c r="O13" t="n">
-        <v>93.0998140427975</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66297440348451</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q13" t="n">
         <v>55.15451422357908</v>
       </c>
       <c r="R13" t="n">
-        <v>29.61613585385106</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S13" t="n">
-        <v>11.47879749935958</v>
+        <v>11.47879749935957</v>
       </c>
       <c r="T13" t="n">
-        <v>2.81431133265467</v>
+        <v>2.814311332654669</v>
       </c>
       <c r="U13" t="n">
         <v>0.03592737871474051</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H14" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I14" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J14" t="n">
         <v>124.6276535414422</v>
@@ -32010,7 +32010,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N14" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O14" t="n">
         <v>247.4069728347182</v>
@@ -32022,13 +32022,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R14" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S14" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T14" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U14" t="n">
         <v>0.1174710942230709</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H15" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I15" t="n">
         <v>27.05003977602748</v>
@@ -32086,7 +32086,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M15" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N15" t="n">
         <v>204.3363450546055</v>
@@ -32095,13 +32095,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P15" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q15" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R15" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S15" t="n">
         <v>14.59323801929634</v>
@@ -32110,7 +32110,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H16" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I16" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J16" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K16" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L16" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M16" t="n">
         <v>103.2492985297116</v>
@@ -32171,16 +32171,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O16" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R16" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S16" t="n">
         <v>11.47879749935957</v>
@@ -32189,7 +32189,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H17" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I17" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J17" t="n">
         <v>124.6276535414422</v>
@@ -32247,7 +32247,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O17" t="n">
         <v>247.4069728347182</v>
@@ -32259,13 +32259,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R17" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S17" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T17" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U17" t="n">
         <v>0.1174710942230709</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H18" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I18" t="n">
         <v>27.05003977602748</v>
@@ -32323,7 +32323,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M18" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N18" t="n">
         <v>204.3363450546055</v>
@@ -32332,13 +32332,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P18" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q18" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R18" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S18" t="n">
         <v>14.59323801929634</v>
@@ -32347,7 +32347,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H19" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I19" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J19" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K19" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L19" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M19" t="n">
         <v>103.2492985297116</v>
@@ -32408,16 +32408,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O19" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R19" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S19" t="n">
         <v>11.47879749935957</v>
@@ -32426,7 +32426,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H20" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I20" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J20" t="n">
         <v>124.6276535414422</v>
@@ -32484,7 +32484,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N20" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O20" t="n">
         <v>247.4069728347182</v>
@@ -32496,13 +32496,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R20" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S20" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T20" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U20" t="n">
         <v>0.1174710942230709</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H21" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I21" t="n">
         <v>27.05003977602748</v>
@@ -32560,7 +32560,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M21" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N21" t="n">
         <v>204.3363450546055</v>
@@ -32569,13 +32569,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P21" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q21" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R21" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S21" t="n">
         <v>14.59323801929634</v>
@@ -32584,7 +32584,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H22" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I22" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J22" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K22" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L22" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M22" t="n">
         <v>103.2492985297116</v>
@@ -32645,16 +32645,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O22" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R22" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S22" t="n">
         <v>11.47879749935957</v>
@@ -32663,7 +32663,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H23" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I23" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J23" t="n">
         <v>124.6276535414422</v>
@@ -32721,7 +32721,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O23" t="n">
         <v>247.4069728347182</v>
@@ -32733,13 +32733,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R23" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S23" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T23" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U23" t="n">
         <v>0.1174710942230709</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H24" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I24" t="n">
         <v>27.05003977602748</v>
@@ -32797,7 +32797,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M24" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N24" t="n">
         <v>204.3363450546055</v>
@@ -32806,13 +32806,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P24" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q24" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R24" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S24" t="n">
         <v>14.59323801929634</v>
@@ -32821,7 +32821,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H25" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I25" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J25" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K25" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L25" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M25" t="n">
         <v>103.2492985297116</v>
@@ -32882,16 +32882,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O25" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R25" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S25" t="n">
         <v>11.47879749935957</v>
@@ -32900,7 +32900,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H26" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I26" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J26" t="n">
         <v>124.6276535414422</v>
@@ -32958,7 +32958,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N26" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O26" t="n">
         <v>247.4069728347182</v>
@@ -32970,13 +32970,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R26" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S26" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T26" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U26" t="n">
         <v>0.1174710942230709</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H27" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I27" t="n">
         <v>27.05003977602748</v>
@@ -33034,7 +33034,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M27" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N27" t="n">
         <v>204.3363450546055</v>
@@ -33043,13 +33043,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P27" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q27" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R27" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S27" t="n">
         <v>14.59323801929634</v>
@@ -33058,7 +33058,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H28" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I28" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J28" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K28" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L28" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M28" t="n">
         <v>103.2492985297116</v>
@@ -33119,16 +33119,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O28" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R28" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S28" t="n">
         <v>11.47879749935957</v>
@@ -33137,7 +33137,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H29" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I29" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J29" t="n">
         <v>124.6276535414422</v>
@@ -33195,7 +33195,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N29" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O29" t="n">
         <v>247.4069728347182</v>
@@ -33207,13 +33207,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R29" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S29" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T29" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U29" t="n">
         <v>0.1174710942230709</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H30" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I30" t="n">
         <v>27.05003977602748</v>
@@ -33271,7 +33271,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M30" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N30" t="n">
         <v>204.3363450546055</v>
@@ -33280,13 +33280,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P30" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q30" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R30" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S30" t="n">
         <v>14.59323801929634</v>
@@ -33295,7 +33295,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H31" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I31" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J31" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K31" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L31" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M31" t="n">
         <v>103.2492985297116</v>
@@ -33356,16 +33356,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O31" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R31" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S31" t="n">
         <v>11.47879749935957</v>
@@ -33374,7 +33374,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H32" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I32" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J32" t="n">
         <v>124.6276535414422</v>
@@ -33432,7 +33432,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N32" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O32" t="n">
         <v>247.4069728347182</v>
@@ -33444,13 +33444,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R32" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S32" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T32" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U32" t="n">
         <v>0.1174710942230709</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H33" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I33" t="n">
         <v>27.05003977602748</v>
@@ -33508,7 +33508,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M33" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N33" t="n">
         <v>204.3363450546055</v>
@@ -33517,13 +33517,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P33" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q33" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R33" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S33" t="n">
         <v>14.59323801929634</v>
@@ -33532,7 +33532,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H34" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I34" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J34" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K34" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L34" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M34" t="n">
         <v>103.2492985297116</v>
@@ -33593,16 +33593,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O34" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R34" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S34" t="n">
         <v>11.47879749935957</v>
@@ -33611,7 +33611,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H35" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I35" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J35" t="n">
         <v>124.6276535414422</v>
@@ -33669,7 +33669,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N35" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O35" t="n">
         <v>247.4069728347182</v>
@@ -33681,13 +33681,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R35" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S35" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T35" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U35" t="n">
         <v>0.1174710942230709</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H36" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I36" t="n">
         <v>27.05003977602748</v>
@@ -33745,7 +33745,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M36" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N36" t="n">
         <v>204.3363450546055</v>
@@ -33754,13 +33754,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P36" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q36" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R36" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S36" t="n">
         <v>14.59323801929634</v>
@@ -33769,7 +33769,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H37" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I37" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J37" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K37" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L37" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M37" t="n">
         <v>103.2492985297116</v>
@@ -33830,16 +33830,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O37" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R37" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S37" t="n">
         <v>11.47879749935957</v>
@@ -33848,7 +33848,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H38" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I38" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J38" t="n">
         <v>124.6276535414422</v>
@@ -33906,7 +33906,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N38" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O38" t="n">
         <v>247.4069728347182</v>
@@ -33918,13 +33918,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R38" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S38" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T38" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U38" t="n">
         <v>0.1174710942230709</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H39" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I39" t="n">
         <v>27.05003977602748</v>
@@ -33982,7 +33982,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M39" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N39" t="n">
         <v>204.3363450546055</v>
@@ -33991,13 +33991,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P39" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q39" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R39" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S39" t="n">
         <v>14.59323801929634</v>
@@ -34006,7 +34006,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H40" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I40" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J40" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K40" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L40" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M40" t="n">
         <v>103.2492985297116</v>
@@ -34067,16 +34067,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O40" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R40" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S40" t="n">
         <v>11.47879749935957</v>
@@ -34085,7 +34085,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H41" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I41" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J41" t="n">
         <v>124.6276535414422</v>
@@ -34143,7 +34143,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N41" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O41" t="n">
         <v>247.4069728347182</v>
@@ -34155,13 +34155,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R41" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S41" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T41" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U41" t="n">
         <v>0.1174710942230709</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H42" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I42" t="n">
         <v>27.05003977602748</v>
@@ -34219,7 +34219,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M42" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N42" t="n">
         <v>204.3363450546055</v>
@@ -34228,13 +34228,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P42" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q42" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R42" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S42" t="n">
         <v>14.59323801929634</v>
@@ -34243,7 +34243,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H43" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I43" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J43" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K43" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L43" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M43" t="n">
         <v>103.2492985297116</v>
@@ -34304,16 +34304,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O43" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R43" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S43" t="n">
         <v>11.47879749935957</v>
@@ -34322,7 +34322,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H44" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I44" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J44" t="n">
         <v>124.6276535414422</v>
@@ -34380,7 +34380,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N44" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O44" t="n">
         <v>247.4069728347182</v>
@@ -34392,13 +34392,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R44" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S44" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T44" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U44" t="n">
         <v>0.1174710942230709</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H45" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I45" t="n">
         <v>27.05003977602748</v>
@@ -34456,7 +34456,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M45" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N45" t="n">
         <v>204.3363450546055</v>
@@ -34465,13 +34465,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P45" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q45" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R45" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S45" t="n">
         <v>14.59323801929634</v>
@@ -34480,7 +34480,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H46" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I46" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J46" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K46" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L46" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M46" t="n">
         <v>103.2492985297116</v>
@@ -34541,16 +34541,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O46" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R46" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S46" t="n">
         <v>11.47879749935957</v>
@@ -34559,7 +34559,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>28.11631013281968</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="P3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>26.98029760220071</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="R5" t="n">
-        <v>28.11631013281968</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K6" t="n">
-        <v>19.45843602451198</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="O6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="K7" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="L7" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="R8" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="O8" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="P8" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>19.45843602451199</v>
       </c>
       <c r="M9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35342,16 +35342,16 @@
         <v>28.11631013281968</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.06215195647334</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J11" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K11" t="n">
-        <v>511.8108166137774</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1386057326869</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M11" t="n">
-        <v>220.4049405192785</v>
+        <v>721.138605732687</v>
       </c>
       <c r="N11" t="n">
         <v>224.7286399150305</v>
       </c>
       <c r="O11" t="n">
-        <v>210.0160134786942</v>
+        <v>210.0160134786941</v>
       </c>
       <c r="P11" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q11" t="n">
-        <v>619.2618613680996</v>
+        <v>457.5844671808415</v>
       </c>
       <c r="R11" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J12" t="n">
         <v>348.6692850276065</v>
@@ -35494,7 +35494,7 @@
         <v>104.4671756487053</v>
       </c>
       <c r="L12" t="n">
-        <v>476.0821040226946</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M12" t="n">
         <v>175.9708370495965</v>
@@ -35509,7 +35509,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.54141491376085</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R12" t="n">
         <v>131.6274520496262</v>
@@ -35576,19 +35576,19 @@
         <v>456.1981002950138</v>
       </c>
       <c r="M13" t="n">
-        <v>498.3864651663287</v>
+        <v>498.3864651663286</v>
       </c>
       <c r="N13" t="n">
-        <v>482.0988174246447</v>
+        <v>482.0988174246446</v>
       </c>
       <c r="O13" t="n">
-        <v>452.118125840538</v>
+        <v>452.1181258405387</v>
       </c>
       <c r="P13" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.4374740627326</v>
+        <v>183.4374740627325</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J14" t="n">
         <v>490.8937735585083</v>
       </c>
       <c r="K14" t="n">
-        <v>721.1386057326868</v>
+        <v>721.138605732687</v>
       </c>
       <c r="L14" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M14" t="n">
-        <v>220.4049405192783</v>
+        <v>639.9360519371128</v>
       </c>
       <c r="N14" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O14" t="n">
         <v>210.0160134786941</v>
@@ -35667,10 +35667,10 @@
         <v>173.5807655415861</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.9758946417566</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R14" t="n">
-        <v>57.20602038632834</v>
+        <v>57.20602038632835</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J15" t="n">
-        <v>53.61626233104984</v>
+        <v>107.8169149177975</v>
       </c>
       <c r="K15" t="n">
         <v>104.4671756487053</v>
@@ -35734,19 +35734,19 @@
         <v>148.0724571217246</v>
       </c>
       <c r="M15" t="n">
-        <v>175.9708370495965</v>
+        <v>721.138605732687</v>
       </c>
       <c r="N15" t="n">
-        <v>213.1726072423091</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O15" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P15" t="n">
-        <v>721.1386057326868</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.5414149137608</v>
+        <v>77.54141491376083</v>
       </c>
       <c r="R15" t="n">
         <v>131.6274520496262</v>
@@ -35810,7 +35810,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L16" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M16" t="n">
         <v>498.3864651663286</v>
@@ -35819,13 +35819,13 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O16" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P16" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q16" t="n">
-        <v>183.4374740627325</v>
+        <v>183.4374740627335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J17" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K17" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1386057326868</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M17" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N17" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O17" t="n">
-        <v>570.8068846150561</v>
+        <v>210.0160134786941</v>
       </c>
       <c r="P17" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677366</v>
       </c>
       <c r="Q17" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R17" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5719013537162</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J18" t="n">
         <v>348.6692850276065</v>
@@ -35974,16 +35974,16 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N18" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O18" t="n">
-        <v>468.071344230698</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P18" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R18" t="n">
         <v>131.6274520496262</v>
@@ -36047,7 +36047,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L19" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M19" t="n">
         <v>498.3864651663286</v>
@@ -36056,7 +36056,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O19" t="n">
-        <v>452.1181258405379</v>
+        <v>452.1181258405387</v>
       </c>
       <c r="P19" t="n">
         <v>373.1975319003542</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J20" t="n">
         <v>490.8937735585083</v>
       </c>
       <c r="K20" t="n">
-        <v>643.8526390063433</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L20" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M20" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N20" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O20" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P20" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677366</v>
       </c>
       <c r="Q20" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R20" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J21" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K21" t="n">
-        <v>721.1386057326868</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L21" t="n">
-        <v>260.9844039937611</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M21" t="n">
         <v>175.9708370495965</v>
       </c>
       <c r="N21" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O21" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P21" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R21" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L22" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M22" t="n">
         <v>498.3864651663286</v>
@@ -36293,7 +36293,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O22" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P22" t="n">
         <v>373.1975319003542</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J23" t="n">
-        <v>95.20769405585565</v>
+        <v>318.1906597409254</v>
       </c>
       <c r="K23" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939408</v>
       </c>
       <c r="L23" t="n">
         <v>1170.737945885522</v>
       </c>
       <c r="M23" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N23" t="n">
-        <v>1248.120443039073</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O23" t="n">
-        <v>674.8587976497404</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P23" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R23" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J24" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K24" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L24" t="n">
-        <v>877.6558340777424</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M24" t="n">
         <v>175.9708370495965</v>
       </c>
       <c r="N24" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O24" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P24" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R24" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L25" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M25" t="n">
         <v>498.3864651663286</v>
@@ -36530,7 +36530,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O25" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P25" t="n">
         <v>373.1975319003542</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J26" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K26" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939408</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.737945885522</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M26" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N26" t="n">
-        <v>1248.120443039073</v>
+        <v>276.3437910242305</v>
       </c>
       <c r="O26" t="n">
         <v>1101.088437633518</v>
       </c>
       <c r="P26" t="n">
-        <v>782.2656941660947</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R26" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J27" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K27" t="n">
         <v>104.4671756487053</v>
@@ -36685,19 +36685,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N27" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O27" t="n">
-        <v>893.3393226134341</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P27" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R27" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L28" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M28" t="n">
         <v>498.3864651663286</v>
@@ -36767,7 +36767,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O28" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P28" t="n">
         <v>373.1975319003542</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J29" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K29" t="n">
         <v>909.5202108939408</v>
       </c>
       <c r="L29" t="n">
-        <v>267.9136319722356</v>
+        <v>1170.737945885522</v>
       </c>
       <c r="M29" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N29" t="n">
-        <v>1248.120443039073</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O29" t="n">
         <v>1101.088437633518</v>
       </c>
       <c r="P29" t="n">
-        <v>926.5897426628553</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.4447832239227</v>
+        <v>446.5587475505143</v>
       </c>
       <c r="R29" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J30" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K30" t="n">
         <v>104.4671756487053</v>
@@ -36922,19 +36922,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N30" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O30" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P30" t="n">
-        <v>857.8386034924227</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R30" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L31" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M31" t="n">
         <v>498.3864651663286</v>
@@ -37004,7 +37004,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O31" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P31" t="n">
         <v>373.1975319003542</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J32" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K32" t="n">
-        <v>151.0199454774153</v>
+        <v>817.2932175496812</v>
       </c>
       <c r="L32" t="n">
-        <v>1128.829373863075</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M32" t="n">
-        <v>220.4049405192783</v>
+        <v>1255.319509127562</v>
       </c>
       <c r="N32" t="n">
-        <v>1248.120443039073</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O32" t="n">
-        <v>1101.088437633518</v>
+        <v>210.0160134786941</v>
       </c>
       <c r="P32" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q32" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R32" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J33" t="n">
         <v>348.6692850276065</v>
@@ -37159,19 +37159,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N33" t="n">
-        <v>617.523671100525</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O33" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P33" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R33" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L34" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M34" t="n">
         <v>498.3864651663286</v>
@@ -37241,7 +37241,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O34" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P34" t="n">
         <v>373.1975319003542</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J35" t="n">
         <v>490.8937735585083</v>
@@ -37314,22 +37314,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M35" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N35" t="n">
-        <v>563.7849109411799</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O35" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P35" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677361</v>
       </c>
       <c r="Q35" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R35" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J36" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K36" t="n">
         <v>104.4671756487053</v>
@@ -37393,22 +37393,22 @@
         <v>148.0724571217246</v>
       </c>
       <c r="M36" t="n">
-        <v>367.4089251139915</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N36" t="n">
-        <v>721.1386057326868</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O36" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P36" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R36" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L37" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M37" t="n">
         <v>498.3864651663286</v>
@@ -37478,7 +37478,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O37" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P37" t="n">
         <v>373.1975319003542</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J38" t="n">
         <v>490.8937735585083</v>
       </c>
       <c r="K38" t="n">
-        <v>721.138605732687</v>
+        <v>490.0762165035652</v>
       </c>
       <c r="L38" t="n">
-        <v>459.1653927525238</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M38" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N38" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O38" t="n">
         <v>210.0160134786941</v>
@@ -37563,10 +37563,10 @@
         <v>173.5807655415861</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R38" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.87765302602747</v>
+        <v>10.87765302602748</v>
       </c>
       <c r="J39" t="n">
-        <v>348.6692850276065</v>
+        <v>291.6187859851807</v>
       </c>
       <c r="K39" t="n">
         <v>104.4671756487053</v>
@@ -37633,16 +37633,16 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N39" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O39" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P39" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q39" t="n">
-        <v>512.0717691732222</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R39" t="n">
         <v>25.10674469113548</v>
@@ -37706,7 +37706,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L40" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M40" t="n">
         <v>498.3864651663286</v>
@@ -37715,7 +37715,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O40" t="n">
-        <v>452.1181258405379</v>
+        <v>452.1181258405383</v>
       </c>
       <c r="P40" t="n">
         <v>373.1975319003542</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J41" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K41" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L41" t="n">
-        <v>721.138605732687</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M41" t="n">
-        <v>721.138605732687</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N41" t="n">
-        <v>224.7286399150304</v>
+        <v>563.7849109411803</v>
       </c>
       <c r="O41" t="n">
-        <v>566.8902975458258</v>
+        <v>210.0160134786941</v>
       </c>
       <c r="P41" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R41" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.87765302602747</v>
+        <v>10.87765302602748</v>
       </c>
       <c r="J42" t="n">
-        <v>291.6187859851808</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K42" t="n">
         <v>104.4671756487053</v>
@@ -37870,19 +37870,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N42" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O42" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P42" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q42" t="n">
-        <v>569.1222682156478</v>
+        <v>405.5510618147312</v>
       </c>
       <c r="R42" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L43" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M43" t="n">
         <v>498.3864651663286</v>
@@ -37952,13 +37952,13 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O43" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P43" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q43" t="n">
-        <v>183.4374740627335</v>
+        <v>183.4374740627325</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J44" t="n">
-        <v>490.8937735585083</v>
+        <v>282.3922043935573</v>
       </c>
       <c r="K44" t="n">
         <v>151.0199454774153</v>
@@ -38025,22 +38025,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M44" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N44" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O44" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P44" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="Q44" t="n">
-        <v>564.5367147059276</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R44" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.87765302602747</v>
+        <v>10.87765302602748</v>
       </c>
       <c r="J45" t="n">
-        <v>53.61626233104984</v>
+        <v>291.6187859851807</v>
       </c>
       <c r="K45" t="n">
-        <v>721.138605732687</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L45" t="n">
-        <v>260.9844039937608</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M45" t="n">
         <v>175.9708370495965</v>
       </c>
       <c r="N45" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O45" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P45" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.5414149137608</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R45" t="n">
         <v>25.10674469113548</v>
@@ -38177,10 +38177,10 @@
         <v>104.6399194220268</v>
       </c>
       <c r="K46" t="n">
-        <v>305.3410754561721</v>
+        <v>305.3410754561723</v>
       </c>
       <c r="L46" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M46" t="n">
         <v>498.3864651663286</v>
@@ -38189,10 +38189,10 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O46" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P46" t="n">
-        <v>373.1975319003549</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q46" t="n">
         <v>183.4374740627325</v>
